--- a/Model Data.xlsx
+++ b/Model Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\MSc MST-AUEB\_Thesis_\Main Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aznavouridis.k\My Drive\MSc MST-AUEB\_Thesis_\Main Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B446DB-E24A-4448-BC16-DE7FE3D0729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8616C3F5-50C8-4322-B235-D876F322E731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC88EE2D-7E34-420D-80FF-09FADBF98414}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BC88EE2D-7E34-420D-80FF-09FADBF98414}"/>
   </bookViews>
   <sheets>
     <sheet name="driver constraints" sheetId="3" r:id="rId1"/>
@@ -1389,17 +1389,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AB4475-1CC3-4A32-B7E1-A920F5EB0A59}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>237</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>244</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>239</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>249</v>
       </c>
@@ -1449,23 +1449,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5297818-A2E8-4006-B530-7DCE84D40249}">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>210</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>251</v>
       </c>
@@ -1502,24 +1503,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -1530,30 +1531,30 @@
         <v>241</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>137</v>
       </c>
@@ -1564,13 +1565,13 @@
         <v>241</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>138</v>
       </c>
@@ -1581,30 +1582,30 @@
         <v>241</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>140</v>
       </c>
@@ -1615,30 +1616,30 @@
         <v>241</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>142</v>
       </c>
@@ -1649,30 +1650,30 @@
         <v>241</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
@@ -1683,13 +1684,13 @@
         <v>241</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>145</v>
       </c>
@@ -1700,30 +1701,30 @@
         <v>241</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -1734,13 +1735,13 @@
         <v>241</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>148</v>
       </c>
@@ -1751,30 +1752,30 @@
         <v>241</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>150</v>
       </c>
@@ -1785,13 +1786,13 @@
         <v>241</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>151</v>
       </c>
@@ -1802,30 +1803,30 @@
         <v>241</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>153</v>
       </c>
@@ -1836,30 +1837,30 @@
         <v>241</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
@@ -1870,30 +1871,30 @@
         <v>241</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="F25" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>157</v>
       </c>
@@ -1904,47 +1905,47 @@
         <v>241</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F28" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -1955,47 +1956,47 @@
         <v>241</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F30" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>163</v>
       </c>
@@ -2006,30 +2007,30 @@
         <v>241</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F33" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>165</v>
       </c>
@@ -2040,30 +2041,30 @@
         <v>241</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F35" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
@@ -2074,30 +2075,30 @@
         <v>241</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F36" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F37" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>169</v>
       </c>
@@ -2108,47 +2109,47 @@
         <v>241</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>172</v>
       </c>
@@ -2159,30 +2160,30 @@
         <v>241</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F41" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F42" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>174</v>
       </c>
@@ -2193,30 +2194,30 @@
         <v>241</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F44" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>176</v>
       </c>
@@ -2227,13 +2228,13 @@
         <v>241</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F45" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>177</v>
       </c>
@@ -2244,30 +2245,30 @@
         <v>241</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F46" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F47" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>179</v>
       </c>
@@ -2278,30 +2279,30 @@
         <v>241</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F48" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F49" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>181</v>
       </c>
@@ -2312,30 +2313,30 @@
         <v>241</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F50" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>183</v>
       </c>
@@ -2346,30 +2347,30 @@
         <v>241</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F53" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>185</v>
       </c>
@@ -2380,13 +2381,13 @@
         <v>241</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F54" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>186</v>
       </c>
@@ -2397,30 +2398,30 @@
         <v>241</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F56" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>188</v>
       </c>
@@ -2431,30 +2432,30 @@
         <v>241</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F57" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F58" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>190</v>
       </c>
@@ -2465,47 +2466,47 @@
         <v>241</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F60" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F61" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>193</v>
       </c>
@@ -2516,30 +2517,30 @@
         <v>241</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F62" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F63" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>195</v>
       </c>
@@ -2550,30 +2551,30 @@
         <v>241</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F64" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F65" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>197</v>
       </c>
@@ -2584,30 +2585,30 @@
         <v>241</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F66" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F67" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>199</v>
       </c>
@@ -2618,30 +2619,30 @@
         <v>241</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F68" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F69" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>201</v>
       </c>
@@ -2652,30 +2653,30 @@
         <v>241</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F70" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F71" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>203</v>
       </c>
@@ -2686,30 +2687,30 @@
         <v>241</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F72" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F73" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>205</v>
       </c>
@@ -2720,30 +2721,30 @@
         <v>241</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="F74" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F75" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>207</v>
       </c>
@@ -2754,13 +2755,13 @@
         <v>241</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F76" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>208</v>
       </c>
@@ -2771,30 +2772,30 @@
         <v>240</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="F77" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F78" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>211</v>
       </c>
@@ -2805,30 +2806,30 @@
         <v>240</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="F79" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F80" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>253</v>
       </c>
@@ -2839,30 +2840,30 @@
         <v>240</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F81" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F82" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>255</v>
       </c>
@@ -2873,30 +2874,30 @@
         <v>240</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="F83" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F84" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>257</v>
       </c>
@@ -2907,30 +2908,30 @@
         <v>240</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F85" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="F86" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>259</v>
       </c>
@@ -2941,30 +2942,30 @@
         <v>240</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F87" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F88" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>261</v>
       </c>
@@ -2975,30 +2976,30 @@
         <v>240</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F89" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F90" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>263</v>
       </c>
@@ -3009,30 +3010,30 @@
         <v>240</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F91" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F92" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>265</v>
       </c>
@@ -3043,30 +3044,30 @@
         <v>240</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="F93" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F94" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>267</v>
       </c>
@@ -3077,30 +3078,30 @@
         <v>240</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F95" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="F96" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>269</v>
       </c>
@@ -3111,30 +3112,30 @@
         <v>240</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F97" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F98" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>271</v>
       </c>
@@ -3145,30 +3146,30 @@
         <v>240</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="F99" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F100" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>273</v>
       </c>
@@ -3179,47 +3180,47 @@
         <v>240</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F101" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F102" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="F103" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>276</v>
       </c>
@@ -3230,30 +3231,30 @@
         <v>240</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F104" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F105" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>278</v>
       </c>
@@ -3264,30 +3265,30 @@
         <v>240</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="F106" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F107" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>280</v>
       </c>
@@ -3298,30 +3299,30 @@
         <v>240</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F108" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="F109" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>282</v>
       </c>
@@ -3332,30 +3333,30 @@
         <v>240</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F110" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F111" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>284</v>
       </c>
@@ -3366,47 +3367,47 @@
         <v>240</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F112" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="F113" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F114" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>287</v>
       </c>
@@ -3417,30 +3418,30 @@
         <v>240</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="F115" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="F116" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>289</v>
       </c>
@@ -3451,30 +3452,30 @@
         <v>240</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F117" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F118" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>291</v>
       </c>
@@ -3485,30 +3486,30 @@
         <v>240</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="F119" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="F120" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>293</v>
       </c>
@@ -3519,13 +3520,13 @@
         <v>240</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F121" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>294</v>
       </c>
@@ -3536,30 +3537,30 @@
         <v>240</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F122" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F123" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>296</v>
       </c>
@@ -3570,30 +3571,30 @@
         <v>240</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F124" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="F125" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>298</v>
       </c>
@@ -3604,13 +3605,13 @@
         <v>240</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F126" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>299</v>
       </c>
@@ -3621,30 +3622,30 @@
         <v>240</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F127" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="F128" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>301</v>
       </c>
@@ -3655,30 +3656,30 @@
         <v>240</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F129" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="F130" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>303</v>
       </c>
@@ -3689,13 +3690,13 @@
         <v>240</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F131" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>304</v>
       </c>
@@ -3706,30 +3707,30 @@
         <v>240</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F132" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F133" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>306</v>
       </c>
@@ -3740,30 +3741,30 @@
         <v>240</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="F134" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="F135" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>308</v>
       </c>
@@ -3774,30 +3775,30 @@
         <v>240</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F136" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F137" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>310</v>
       </c>
@@ -3808,30 +3809,30 @@
         <v>240</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F138" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="F139" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>312</v>
       </c>
@@ -3842,13 +3843,13 @@
         <v>240</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F140" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>313</v>
       </c>
@@ -3859,30 +3860,30 @@
         <v>240</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F141" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F142" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>315</v>
       </c>
@@ -3893,13 +3894,13 @@
         <v>240</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="F143" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>316</v>
       </c>
@@ -3910,30 +3911,30 @@
         <v>240</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F144" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F145" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>318</v>
       </c>
@@ -3944,30 +3945,30 @@
         <v>240</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F146" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F147" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>320</v>
       </c>
@@ -3978,30 +3979,30 @@
         <v>240</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F148" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="F149" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>322</v>
       </c>
@@ -4012,13 +4013,13 @@
         <v>240</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="F150" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>323</v>
       </c>
@@ -4029,30 +4030,30 @@
         <v>240</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="F151" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="F152" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>325</v>
       </c>
@@ -4070,6 +4071,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F152">
+    <sortCondition ref="E1:E152"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4085,17 +4089,17 @@
       <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>210</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>251</v>
       </c>
@@ -4132,7 +4136,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
@@ -4183,7 +4187,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>137</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>138</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
@@ -4234,7 +4238,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>140</v>
       </c>
@@ -4251,7 +4255,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>141</v>
       </c>
@@ -4268,7 +4272,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>142</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>143</v>
       </c>
@@ -4302,7 +4306,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>145</v>
       </c>
@@ -4336,7 +4340,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>146</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -4370,7 +4374,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>148</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>149</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>150</v>
       </c>
@@ -4421,7 +4425,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>151</v>
       </c>
@@ -4438,7 +4442,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>152</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>153</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>154</v>
       </c>
@@ -4489,7 +4493,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
@@ -4506,7 +4510,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>156</v>
       </c>
@@ -4523,7 +4527,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>157</v>
       </c>
@@ -4540,7 +4544,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>158</v>
       </c>
@@ -4557,7 +4561,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>159</v>
       </c>
@@ -4574,7 +4578,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -4591,7 +4595,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>161</v>
       </c>
@@ -4608,7 +4612,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>162</v>
       </c>
@@ -4625,7 +4629,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>163</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>164</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>165</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
@@ -4710,7 +4714,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>168</v>
       </c>
@@ -4727,7 +4731,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>169</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>170</v>
       </c>
@@ -4761,7 +4765,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>171</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>172</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>173</v>
       </c>
@@ -4812,7 +4816,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>174</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>175</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>176</v>
       </c>
@@ -4863,7 +4867,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>177</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>178</v>
       </c>
@@ -4897,7 +4901,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>179</v>
       </c>
@@ -4914,7 +4918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>180</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>181</v>
       </c>
@@ -4948,7 +4952,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>182</v>
       </c>
@@ -4965,7 +4969,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>183</v>
       </c>
@@ -4982,7 +4986,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>184</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>185</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>186</v>
       </c>
@@ -5033,7 +5037,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>187</v>
       </c>
@@ -5050,7 +5054,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>188</v>
       </c>
@@ -5067,7 +5071,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>189</v>
       </c>
@@ -5084,7 +5088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>190</v>
       </c>
